--- a/Datasets/UCD_EngArch_Path_Mechanical_UG_Modules.xlsx
+++ b/Datasets/UCD_EngArch_Path_Mechanical_UG_Modules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SATLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanh\Documents\GitHub\ChatGPTAssessment\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA69A645-569C-46C7-9FF1-00D44B1864E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE605DDF-ABAC-4A7C-BD52-A73E2F83B0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19965" yWindow="0" windowWidth="8940" windowHeight="15585" xr2:uid="{DACE1BDD-8768-4C7A-B6AC-6EF90ACFC2F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DACE1BDD-8768-4C7A-B6AC-6EF90ACFC2F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E5726C-863D-4F4C-BDFC-10125025EB46}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
